--- a/ToaDo.xlsx
+++ b/ToaDo.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoang\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antki\OneDrive\Desktop\Vrml\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F255816-2749-47AF-8ED5-BE3799042C05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,19 +27,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>X</t>
+    <t>x</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>y</t>
   </si>
   <si>
-    <t>A</t>
+    <t>a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -74,7 +75,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Chuẩn" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -351,272 +352,547 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B2" sqref="B2:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
-        <f>SIN(D3)</f>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="G3" s="1">
+        <f>COS(I3)</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <f>SIN(I3)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="1">
-        <f>COS(D3)</f>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G35" si="0">COS(I4)</f>
+        <v>0.98078528040323043</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H35" si="1">SIN(I4)</f>
+        <v>0.19509032201612825</v>
+      </c>
+      <c r="I4" s="1">
+        <f>I3+2*PI()/32</f>
+        <v>0.19634954084936207</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.92387953251128674</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.38268343236508978</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" ref="I5:I35" si="2">I4+2*PI()/32</f>
+        <v>0.39269908169872414</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.83146961230254524</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.55557023301960218</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.58904862254808621</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.78539816339744828</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.55557023301960229</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.83146961230254524</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98174770424681035</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.38268343236508984</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.92387953251128674</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1780972450961724</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.19509032201612833</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98078528040323043</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3744467859455345</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <f t="shared" ref="B4:B21" si="0">SIN(D4)</f>
-        <v>0.38268343236508978</v>
-      </c>
-      <c r="C4" s="1">
-        <f t="shared" ref="C4:C21" si="1">COS(D4)</f>
+      <c r="I11" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5707963267948966</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.19509032201612819</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98078528040323043</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7671458676442586</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.38268343236508973</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
         <v>0.92387953251128674</v>
       </c>
-      <c r="D4" s="1">
-        <f>D3+2*PI()/16</f>
-        <v>0.39269908169872414</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.70710678118654746</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="I13" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9634954084936207</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.55557023301960196</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.83146961230254546</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1598449493429825</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="H15" s="1">
         <f t="shared" si="1"/>
         <v>0.70710678118654757</v>
       </c>
-      <c r="D5" s="1">
-        <f t="shared" ref="D5:D21" si="2">D4+2*PI()/16</f>
-        <v>0.78539816339744828</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.92387953251128674</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" si="1"/>
-        <v>0.38268343236508984</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="2"/>
-        <v>1.1780972450961724</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="1"/>
-        <v>6.1257422745431001E-17</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="2"/>
-        <v>1.5707963267948966</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.92387953251128674</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.38268343236508973</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="2"/>
-        <v>1.9634954084936207</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.70710678118654757</v>
-      </c>
-      <c r="C9" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.70710678118654746</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="I15" s="1">
         <f t="shared" si="2"/>
         <v>2.3561944901923448</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.38268343236508989</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.92387953251128674</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="2"/>
-        <v>2.748893571891069</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>1.22514845490862E-16</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" si="1"/>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.83146961230254535</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.55557023301960218</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="2"/>
+        <v>2.5525440310417071</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.92387953251128685</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.38268343236508945</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7488935718910694</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.98078528040323054</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.19509032201612772</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9452431127404317</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="G19" s="1">
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="D11" s="1">
-        <f t="shared" si="2"/>
-        <v>3.1415926535897931</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.38268343236508967</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.92387953251128685</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="2"/>
-        <v>3.5342917352885173</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.70710678118654746</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.70710678118654768</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="2"/>
-        <v>3.9269908169872414</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.92387953251128652</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.38268343236509034</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="2"/>
-        <v>4.3196898986859651</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="C15" s="1">
-        <f t="shared" si="1"/>
-        <v>-1.83772268236293E-16</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="2"/>
-        <v>4.7123889803846897</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.92387953251128663</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" si="1"/>
-        <v>0.38268343236509</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1050880620834143</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.70710678118654702</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" si="1"/>
-        <v>0.70710678118654802</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="2"/>
-        <v>5.4977871437821388</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.38268343236508873</v>
-      </c>
-      <c r="C18" s="1">
-        <f t="shared" si="1"/>
-        <v>0.92387953251128718</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="2"/>
-        <v>5.8904862254808634</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="1">
-        <f t="shared" si="0"/>
-        <v>1.5313271484185265E-15</v>
-      </c>
-      <c r="C19" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="2"/>
-        <v>6.283185307179588</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="H19" s="1">
+        <f t="shared" si="1"/>
+        <v>-7.6566357420926323E-16</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="2"/>
+        <v>3.141592653589794</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.98078528040323021</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.19509032201612922</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="2"/>
+        <v>3.3379421944391563</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
+      <c r="G21" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.92387953251128629</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.38268343236509089</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="2"/>
+        <v>3.5342917352885186</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G22" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.83146961230254446</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.5555702330196034</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="2"/>
+        <v>3.7306412761378809</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G23" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.70710678118654635</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.70710678118654868</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="2"/>
+        <v>3.9269908169872432</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.55557023301960073</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.83146961230254623</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="2"/>
+        <v>4.1233403578366055</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G25" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.38268343236508789</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.92387953251128752</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="2"/>
+        <v>4.3196898986859678</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G26" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.19509032201612606</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.98078528040323087</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="2"/>
+        <v>4.51603943953533</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G27" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4807629908640827E-15</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="2"/>
+        <v>4.7123889803846923</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G28" s="1">
+        <f t="shared" si="0"/>
+        <v>0.19509032201613091</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.98078528040322988</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="2"/>
+        <v>4.9087385212340546</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G29" s="1">
+        <f t="shared" si="0"/>
+        <v>0.38268343236509245</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.92387953251128563</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1050880620834169</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.55557023301960484</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.83146961230254346</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="2"/>
+        <v>5.3014376029327792</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G31" s="1">
+        <f t="shared" si="0"/>
+        <v>0.7071067811865499</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.70710678118654513</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="2"/>
+        <v>5.4977871437821415</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.83146961230254723</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.55557023301959929</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="2"/>
+        <v>5.6941366846315038</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.92387953251128818</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.38268343236508628</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="2"/>
+        <v>5.8904862254808661</v>
+      </c>
+    </row>
+    <row r="34" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.98078528040323121</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.19509032201612436</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="2"/>
+        <v>6.0868357663302284</v>
+      </c>
+    </row>
+    <row r="35" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G35" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="1"/>
+        <v>4.1958624075189022E-15</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="2"/>
+        <v>6.2831853071795907</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
